--- a/team_specific_matrix/CSUN_A.xlsx
+++ b/team_specific_matrix/CSUN_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2377850162866449</v>
+        <v>0.2438356164383562</v>
       </c>
       <c r="C2">
-        <v>0.4788273615635179</v>
+        <v>0.4684931506849315</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009771986970684038</v>
+        <v>0.00821917808219178</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1824104234527687</v>
+        <v>0.1945205479452055</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09120521172638436</v>
+        <v>0.08493150684931507</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01342281879194631</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02684563758389262</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7248322147651006</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2348993288590604</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6875</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.2987012987012987</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06936416184971098</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0115606936416185</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06358381502890173</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3005780346820809</v>
+        <v>0.304147465437788</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04624277456647399</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1502890173410405</v>
+        <v>0.1566820276497696</v>
       </c>
       <c r="R6">
-        <v>0.04624277456647399</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="S6">
-        <v>0.3121387283236994</v>
+        <v>0.3271889400921659</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1098901098901099</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05494505494505494</v>
+        <v>0.05</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02747252747252747</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02197802197802198</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1758241758241758</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="R7">
-        <v>0.1043956043956044</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="S7">
-        <v>0.3626373626373626</v>
+        <v>0.3772727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1017543859649123</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03157894736842105</v>
+        <v>0.02506265664160401</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05964912280701754</v>
+        <v>0.07268170426065163</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1403508771929824</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02456140350877193</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1614035087719298</v>
+        <v>0.1604010025062657</v>
       </c>
       <c r="R8">
-        <v>0.05614035087719298</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S8">
-        <v>0.4245614035087719</v>
+        <v>0.4411027568922306</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1263736263736264</v>
+        <v>0.1163793103448276</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01098901098901099</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03846153846153846</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0989010989010989</v>
+        <v>0.1077586206896552</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03296703296703297</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2307692307692308</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="R9">
-        <v>0.06043956043956044</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="S9">
-        <v>0.4010989010989011</v>
+        <v>0.418103448275862</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1281604184829991</v>
+        <v>0.1201117318435754</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03748910200523103</v>
+        <v>0.03631284916201118</v>
       </c>
       <c r="E10">
-        <v>0.001743679163034002</v>
+        <v>0.001396648044692737</v>
       </c>
       <c r="F10">
-        <v>0.05928509154315606</v>
+        <v>0.05726256983240224</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1264167393199651</v>
+        <v>0.1312849162011173</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02789886660854403</v>
+        <v>0.02723463687150838</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2284219703574542</v>
+        <v>0.2325418994413408</v>
       </c>
       <c r="R10">
-        <v>0.04446381865736704</v>
+        <v>0.04818435754189944</v>
       </c>
       <c r="S10">
-        <v>0.3461203138622493</v>
+        <v>0.3456703910614525</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003508771929824561</v>
+        <v>0.00303951367781155</v>
       </c>
       <c r="G11">
-        <v>0.1192982456140351</v>
+        <v>0.1306990881458966</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0912280701754386</v>
+        <v>0.0911854103343465</v>
       </c>
       <c r="K11">
-        <v>0.1508771929824561</v>
+        <v>0.1519756838905775</v>
       </c>
       <c r="L11">
-        <v>0.6210526315789474</v>
+        <v>0.6048632218844985</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01403508771929825</v>
+        <v>0.0182370820668693</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7150537634408602</v>
+        <v>0.7194570135746606</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2365591397849462</v>
+        <v>0.2081447963800905</v>
       </c>
       <c r="K12">
-        <v>0.005376344086021506</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L12">
-        <v>0.03225806451612903</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01075268817204301</v>
+        <v>0.03619909502262444</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3666666666666666</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02904564315352697</v>
+        <v>0.03367003367003367</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1037344398340249</v>
+        <v>0.1077441077441077</v>
       </c>
       <c r="I15">
-        <v>0.08298755186721991</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="J15">
-        <v>0.3526970954356847</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="K15">
-        <v>0.08298755186721991</v>
+        <v>0.06734006734006734</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008298755186721992</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="N15">
-        <v>0.004149377593360996</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="O15">
-        <v>0.0954356846473029</v>
+        <v>0.07744107744107744</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2406639004149378</v>
+        <v>0.2457912457912458</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04433497536945813</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1330049261083744</v>
+        <v>0.1327800829875519</v>
       </c>
       <c r="I16">
-        <v>0.1133004926108374</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="J16">
-        <v>0.3891625615763547</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="K16">
-        <v>0.1182266009852217</v>
+        <v>0.1203319502074689</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03940886699507389</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04926108374384237</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1133004926108374</v>
+        <v>0.1078838174273859</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02457002457002457</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.113022113022113</v>
+        <v>0.1182170542635659</v>
       </c>
       <c r="I17">
-        <v>0.1081081081081081</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="J17">
-        <v>0.4422604422604423</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="K17">
-        <v>0.14004914004914</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.004914004914004914</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001937984496124031</v>
       </c>
       <c r="O17">
-        <v>0.04668304668304668</v>
+        <v>0.04457364341085272</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1203931203931204</v>
+        <v>0.1298449612403101</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01886792452830189</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1037735849056604</v>
+        <v>0.1287878787878788</v>
       </c>
       <c r="I18">
-        <v>0.09433962264150944</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="J18">
-        <v>0.4339622641509434</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="K18">
-        <v>0.1132075471698113</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02830188679245283</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N18">
-        <v>0.009433962264150943</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="O18">
-        <v>0.09433962264150944</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1037735849056604</v>
+        <v>0.1060606060606061</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01338432122370937</v>
+        <v>0.01943198804185351</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1720841300191205</v>
+        <v>0.187593423019432</v>
       </c>
       <c r="I19">
-        <v>0.08221797323135756</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="J19">
-        <v>0.3833652007648183</v>
+        <v>0.3684603886397608</v>
       </c>
       <c r="K19">
-        <v>0.1166347992351816</v>
+        <v>0.1053811659192825</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01816443594646272</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09560229445506692</v>
+        <v>0.09491778774289986</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.118546845124283</v>
+        <v>0.1210762331838565</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/CSUN_A.xlsx
+++ b/team_specific_matrix/CSUN_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2438356164383562</v>
+        <v>0.2418952618453865</v>
       </c>
       <c r="C2">
-        <v>0.4684931506849315</v>
+        <v>0.4663341645885287</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00821917808219178</v>
+        <v>0.009975062344139651</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1945205479452055</v>
+        <v>0.1895261845386534</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08493150684931507</v>
+        <v>0.09226932668329177</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01162790697674419</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04069767441860465</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7151162790697675</v>
+        <v>0.7074468085106383</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2325581395348837</v>
+        <v>0.2393617021276596</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02597402597402598</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6753246753246753</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2987012987012987</v>
+        <v>0.3058823529411765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06912442396313365</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009216589861751152</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05069124423963134</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.304147465437788</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04147465437788019</v>
+        <v>0.0375</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1566820276497696</v>
+        <v>0.1625</v>
       </c>
       <c r="R6">
-        <v>0.04147465437788019</v>
+        <v>0.0375</v>
       </c>
       <c r="S6">
-        <v>0.3271889400921659</v>
+        <v>0.3416666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1045454545454545</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02727272727272727</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1454545454545454</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02727272727272727</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1727272727272727</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="R7">
-        <v>0.09545454545454546</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="S7">
-        <v>0.3772727272727273</v>
+        <v>0.3951612903225806</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09523809523809523</v>
+        <v>0.09172259507829977</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02506265664160401</v>
+        <v>0.029082774049217</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07268170426065163</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1353383458646616</v>
+        <v>0.1319910514541387</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02255639097744361</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1604010025062657</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="R8">
-        <v>0.04761904761904762</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="S8">
-        <v>0.4411027568922306</v>
+        <v>0.4340044742729307</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1163793103448276</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01724137931034483</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04310344827586207</v>
+        <v>0.04313725490196078</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1077586206896552</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02586206896551724</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2155172413793103</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="R9">
-        <v>0.05603448275862069</v>
+        <v>0.05490196078431372</v>
       </c>
       <c r="S9">
-        <v>0.418103448275862</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1201117318435754</v>
+        <v>0.1214421252371917</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03631284916201118</v>
+        <v>0.03542061986084757</v>
       </c>
       <c r="E10">
-        <v>0.001396648044692737</v>
+        <v>0.001265022137887413</v>
       </c>
       <c r="F10">
-        <v>0.05726256983240224</v>
+        <v>0.058191018342821</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1312849162011173</v>
+        <v>0.1302972802024036</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02723463687150838</v>
+        <v>0.02530044275774826</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2325418994413408</v>
+        <v>0.228336495888678</v>
       </c>
       <c r="R10">
-        <v>0.04818435754189944</v>
+        <v>0.04743833017077799</v>
       </c>
       <c r="S10">
-        <v>0.3456703910614525</v>
+        <v>0.3523086654016445</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00303951367781155</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="G11">
-        <v>0.1306990881458966</v>
+        <v>0.1327913279132791</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0911854103343465</v>
+        <v>0.08672086720867209</v>
       </c>
       <c r="K11">
-        <v>0.1519756838905775</v>
+        <v>0.1517615176151761</v>
       </c>
       <c r="L11">
-        <v>0.6048632218844985</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0182370820668693</v>
+        <v>0.01626016260162602</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7194570135746606</v>
+        <v>0.7287449392712551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2081447963800905</v>
+        <v>0.194331983805668</v>
       </c>
       <c r="K12">
-        <v>0.004524886877828055</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="L12">
-        <v>0.03167420814479638</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03619909502262444</v>
+        <v>0.04048582995951417</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3571428571428572</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03367003367003367</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1077441077441077</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I15">
-        <v>0.08080808080808081</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J15">
-        <v>0.3737373737373738</v>
+        <v>0.3858024691358025</v>
       </c>
       <c r="K15">
-        <v>0.06734006734006734</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0101010101010101</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="N15">
-        <v>0.003367003367003367</v>
+        <v>0.00308641975308642</v>
       </c>
       <c r="O15">
-        <v>0.07744107744107744</v>
+        <v>0.07716049382716049</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2457912457912458</v>
+        <v>0.2438271604938272</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04149377593360996</v>
+        <v>0.0421455938697318</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1327800829875519</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="I16">
-        <v>0.1037344398340249</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J16">
-        <v>0.3983402489626556</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="K16">
-        <v>0.1203319502074689</v>
+        <v>0.1226053639846743</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04149377593360996</v>
+        <v>0.03831417624521073</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05394190871369295</v>
+        <v>0.05363984674329502</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1078838174273859</v>
+        <v>0.1187739463601533</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01937984496124031</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1182170542635659</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="I17">
-        <v>0.1046511627906977</v>
+        <v>0.1066433566433566</v>
       </c>
       <c r="J17">
-        <v>0.4496124031007752</v>
+        <v>0.4493006993006993</v>
       </c>
       <c r="K17">
-        <v>0.124031007751938</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007751937984496124</v>
+        <v>0.008741258741258742</v>
       </c>
       <c r="N17">
-        <v>0.001937984496124031</v>
+        <v>0.001748251748251748</v>
       </c>
       <c r="O17">
-        <v>0.04457364341085272</v>
+        <v>0.0437062937062937</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1298449612403101</v>
+        <v>0.1258741258741259</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01515151515151515</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1287878787878788</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="I18">
-        <v>0.09848484848484848</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="J18">
-        <v>0.4318181818181818</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K18">
-        <v>0.09848484848484848</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02272727272727273</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="N18">
-        <v>0.007575757575757576</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="O18">
-        <v>0.09090909090909091</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1060606060606061</v>
+        <v>0.09929078014184398</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01943198804185351</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.187593423019432</v>
+        <v>0.1891348088531187</v>
       </c>
       <c r="I19">
-        <v>0.08520179372197309</v>
+        <v>0.08517773306505701</v>
       </c>
       <c r="J19">
-        <v>0.3684603886397608</v>
+        <v>0.3715627095908786</v>
       </c>
       <c r="K19">
-        <v>0.1053811659192825</v>
+        <v>0.1086519114688129</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0179372197309417</v>
+        <v>0.01676727028839705</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09491778774289986</v>
+        <v>0.09456740442655935</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1210762331838565</v>
+        <v>0.1153588195841717</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/CSUN_A.xlsx
+++ b/team_specific_matrix/CSUN_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2418952618453865</v>
+        <v>0.2406947890818859</v>
       </c>
       <c r="C2">
-        <v>0.4663341645885287</v>
+        <v>0.4665012406947891</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009975062344139651</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1895261845386534</v>
+        <v>0.1885856079404467</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09226932668329177</v>
+        <v>0.09181141439205956</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01063829787234043</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0425531914893617</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7074468085106383</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2393617021276596</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03529411764705882</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6588235294117647</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3058823529411765</v>
+        <v>0.2988505747126437</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.064</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008333333333333333</v>
+        <v>0.008</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2958333333333333</v>
+        <v>0.296</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0375</v>
+        <v>0.04</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1625</v>
+        <v>0.16</v>
       </c>
       <c r="R6">
-        <v>0.0375</v>
+        <v>0.036</v>
       </c>
       <c r="S6">
-        <v>0.3416666666666667</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1008064516129032</v>
+        <v>0.1015625</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04435483870967742</v>
+        <v>0.04296875</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="F7">
-        <v>0.03225806451612903</v>
+        <v>0.03515625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1411290322580645</v>
+        <v>0.13671875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02419354838709677</v>
+        <v>0.0234375</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1774193548387097</v>
+        <v>0.171875</v>
       </c>
       <c r="R7">
-        <v>0.0846774193548387</v>
+        <v>0.08203125</v>
       </c>
       <c r="S7">
-        <v>0.3951612903225806</v>
+        <v>0.40234375</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09172259507829977</v>
+        <v>0.08893709327548807</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.029082774049217</v>
+        <v>0.02819956616052061</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06935123042505593</v>
+        <v>0.07158351409978309</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1319910514541387</v>
+        <v>0.1323210412147506</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02237136465324385</v>
+        <v>0.02169197396963124</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.174496644295302</v>
+        <v>0.1735357917570499</v>
       </c>
       <c r="R8">
-        <v>0.04697986577181208</v>
+        <v>0.0455531453362256</v>
       </c>
       <c r="S8">
-        <v>0.4340044742729307</v>
+        <v>0.438177874186551</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1137254901960784</v>
+        <v>0.1102661596958175</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0196078431372549</v>
+        <v>0.01901140684410646</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04313725490196078</v>
+        <v>0.04182509505703422</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1137254901960784</v>
+        <v>0.1140684410646388</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02745098039215686</v>
+        <v>0.02661596958174905</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2156862745098039</v>
+        <v>0.2243346007604563</v>
       </c>
       <c r="R9">
-        <v>0.05490196078431372</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="S9">
-        <v>0.4117647058823529</v>
+        <v>0.4068441064638783</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1214421252371917</v>
+        <v>0.1181873851806491</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03542061986084757</v>
+        <v>0.03612982241273729</v>
       </c>
       <c r="E10">
-        <v>0.001265022137887413</v>
+        <v>0.001224739742804654</v>
       </c>
       <c r="F10">
-        <v>0.058191018342821</v>
+        <v>0.05756276791181874</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1302972802024036</v>
+        <v>0.1298224127372933</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02530044275774826</v>
+        <v>0.02633190447030006</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.228336495888678</v>
+        <v>0.2308634415186773</v>
       </c>
       <c r="R10">
-        <v>0.04743833017077799</v>
+        <v>0.04715248009797918</v>
       </c>
       <c r="S10">
-        <v>0.3523086654016445</v>
+        <v>0.3527250459277403</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.002710027100271003</v>
+        <v>0.002604166666666667</v>
       </c>
       <c r="G11">
-        <v>0.1327913279132791</v>
+        <v>0.1380208333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08672086720867209</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="K11">
-        <v>0.1517615176151761</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="L11">
-        <v>0.6097560975609756</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01626016260162602</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7287449392712551</v>
+        <v>0.7204724409448819</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.194331983805668</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="K12">
-        <v>0.008097165991902834</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="L12">
-        <v>0.02834008097165992</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04048582995951417</v>
+        <v>0.04724409448818898</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5555555555555556</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3777777777777778</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0308641975308642</v>
+        <v>0.03254437869822485</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1111111111111111</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="I15">
-        <v>0.07407407407407407</v>
+        <v>0.07396449704142012</v>
       </c>
       <c r="J15">
-        <v>0.3858024691358025</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K15">
-        <v>0.06481481481481481</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009259259259259259</v>
+        <v>0.008875739644970414</v>
       </c>
       <c r="N15">
-        <v>0.00308641975308642</v>
+        <v>0.002958579881656805</v>
       </c>
       <c r="O15">
-        <v>0.07716049382716049</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2438271604938272</v>
+        <v>0.2485207100591716</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0421455938697318</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1379310344827586</v>
+        <v>0.1401515151515151</v>
       </c>
       <c r="I16">
-        <v>0.103448275862069</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="J16">
-        <v>0.3831417624521073</v>
+        <v>0.3825757575757576</v>
       </c>
       <c r="K16">
-        <v>0.1226053639846743</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03831417624521073</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05363984674329502</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1187739463601533</v>
+        <v>0.1174242424242424</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01923076923076923</v>
+        <v>0.01848739495798319</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1188811188811189</v>
+        <v>0.1210084033613445</v>
       </c>
       <c r="I17">
-        <v>0.1066433566433566</v>
+        <v>0.1042016806722689</v>
       </c>
       <c r="J17">
-        <v>0.4493006993006993</v>
+        <v>0.4487394957983193</v>
       </c>
       <c r="K17">
-        <v>0.1258741258741259</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008741258741258742</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="N17">
-        <v>0.001748251748251748</v>
+        <v>0.001680672268907563</v>
       </c>
       <c r="O17">
-        <v>0.0437062937062937</v>
+        <v>0.0453781512605042</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1258741258741259</v>
+        <v>0.1260504201680672</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01418439716312057</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
       <c r="I18">
-        <v>0.09929078014184398</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J18">
-        <v>0.425531914893617</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="K18">
-        <v>0.09929078014184398</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02836879432624113</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N18">
-        <v>0.007092198581560284</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="O18">
-        <v>0.09929078014184398</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09929078014184398</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0187793427230047</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1891348088531187</v>
+        <v>0.1883495145631068</v>
       </c>
       <c r="I19">
-        <v>0.08517773306505701</v>
+        <v>0.08543689320388349</v>
       </c>
       <c r="J19">
-        <v>0.3715627095908786</v>
+        <v>0.370873786407767</v>
       </c>
       <c r="K19">
-        <v>0.1086519114688129</v>
+        <v>0.1093851132686084</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01676727028839705</v>
+        <v>0.0168284789644013</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09456740442655935</v>
+        <v>0.09514563106796116</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1153588195841717</v>
+        <v>0.1145631067961165</v>
       </c>
     </row>
   </sheetData>
